--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222831.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 10:28:41</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 11:44:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 11:44:35</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 12:09:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 12:09:16</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 12:31:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 12:31:38</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 12:42:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 12:42:36</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 12:51:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 12:51:23</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 12:59:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 12:59:51</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 01:20:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 01:20:05</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 01:35:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 01:35:31</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 01:45:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 01:45:06</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 01:54:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 01:54:17</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:03:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:03:18</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:21:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:21:01</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:30:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:30:23</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:39:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:39:19</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:47:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:47:47</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:56:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:56:28</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 03:14:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 03:14:08</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 03:32:04</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -36408,7 +36408,7 @@
         <v>83</v>
       </c>
       <c r="N404" s="0" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="O404" s="0" t="s">
         <v>45</v>
@@ -36818,7 +36818,7 @@
         <v>83</v>
       </c>
       <c r="N411" s="0" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="O411" s="0" t="s">
         <v>44</v>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 03:32:04</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 03:43:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 03:43:42</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 03:53:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 03:53:07</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:01:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:01:19</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:17:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:17:56</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:26:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:26:32</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:35:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:35:50</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:44:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:44:39</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:53:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:53:47</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 05:02:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 05:02:34</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 05:26:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 05:26:24</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 05:37:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 05:37:39</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 05:48:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 05:48:08</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 05:56:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 05:56:02</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:08:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:08:58</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:24:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:24:14</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:33:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:33:47</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:41:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:41:53</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:50:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:50:40</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:59:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:59:41</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 07:17:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 07:17:06</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 07:31:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 07:31:20</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 07:40:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 07:40:01</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 07:49:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 07:49:44</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 07:57:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 07:57:37</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:11:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 08:11:28</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:22:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 08:22:50</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:31:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 08:31:47</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:40:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 08:40:25</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:49:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 08:49:21</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:58:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 08:58:27</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 09:23:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 09:23:54</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 09:50:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 09:50:39</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 10:08:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 10:08:42</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 10:28:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 10:28:19</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 10:37:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 10:37:20</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 10:45:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 10:45:50</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 10:55:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 10:55:05</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 11:07:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 11:07:13</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 11:21:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 11:21:39</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 11:30:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 11:30:34</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 11:39:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 11:39:50</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 11:48:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 11:48:10</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 11:57:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 11:57:01</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 12:11:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 12:11:38</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 12:26:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 12:26:33</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 12:35:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 12:35:48</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 12:44:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 12:44:36</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 12:53:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 12:53:41</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 01:02:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 01:02:33</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 01:29:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 01:29:24</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 01:44:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 01:44:55</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 01:54:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 01:54:16</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:02:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:02:48</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:20:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:20:00</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:30:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:30:01</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:38:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:38:47</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:47:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:47:13</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 02:57:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 02:57:08</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 03:12:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 03:12:06</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 03:30:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 03:30:26</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 03:40:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 03:40:46</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 03:49:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 03:49:51</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 03:58:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 03:58:11</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:11:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:11:52</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:22:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:22:07</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:30:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:30:21</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:39:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:39:17</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:47:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:47:58</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 04:56:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 04:56:45</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 05:11:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 05:11:53</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 05:27:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 05:27:13</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 05:37:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 05:37:10</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 05:45:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 05:45:56</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 05:54:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 05:54:51</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:07:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:07:08</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:20:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:20:26</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:29:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:29:47</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:39:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:39:01</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:48:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:48:16</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 06:57:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 06:57:08</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 07:10:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 07:10:40</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 07:26:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 07:26:26</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 07:35:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 07:35:13</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 07:44:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 07:44:11</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 07:53:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 07:53:00</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:01:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 08:01:58</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:21:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 08:21:55</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:30:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 08:30:34</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:40:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 08:40:00</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:48:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-01.xlsx
+++ b/sigbm_download_2023-01-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 08:48:49</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 08:58:00</t>
   </si>
   <si>
     <t>ID Barragem</t>
